--- a/c1/carstat.xlsx
+++ b/c1/carstat.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lr\trunk\c1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="18180" windowHeight="8325"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>车牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,14 +64,22 @@
   </si>
   <si>
     <t>LSGJT52U95S206880</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G4EE6B4549806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LBEMCACA36X004477</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,24 +118,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -164,7 +188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -196,9 +220,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,6 +255,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -405,19 +431,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,15 +457,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>9806</v>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -453,7 +482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -471,12 +500,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -484,12 +513,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
